--- a/GunfireDungeon_Godot/excel/AbnormalStateConfig@异常状态.xlsx
+++ b/GunfireDungeon_Godot/excel/AbnormalStateConfig@异常状态.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27360" windowHeight="14685"/>
+    <workbookView windowWidth="24765" windowHeight="14685"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>Id</t>
   </si>
@@ -40,6 +40,9 @@
     <t>Gradient</t>
   </si>
   <si>
+    <t>LostTime</t>
+  </si>
+  <si>
     <t>LostSpeed</t>
   </si>
   <si>
@@ -52,7 +55,7 @@
     <t>Icon</t>
   </si>
   <si>
-    <t>异常状态类型id</t>
+    <t>异常状态类型id，和AbnormalStateType枚举索引对应</t>
   </si>
   <si>
     <t>名称</t>
@@ -62,9 +65,13 @@
 如果该异常状态只有一层，填一个值就行了</t>
   </si>
   <si>
+    <t>异常状态开始消退延时，单位：秒
+注意：这个值只用于未进入该异常状态时的消退时间</t>
+  </si>
+  <si>
     <t>异常属性消退速度
 每秒消退量
-这个值只用于未进入该异常状态时的消退速度</t>
+注意：这个值只用于未进入该异常状态时的消退速度</t>
   </si>
   <si>
     <t>额外配置属性</t>
@@ -97,7 +104,10 @@
     <t>1</t>
   </si>
   <si>
-    <t>30</t>
+    <t>3</t>
+  </si>
+  <si>
+    <t>8</t>
   </si>
   <si>
     <t>每秒扣除（3%最大生命值+5）的生命值，持续10秒</t>
@@ -1106,27 +1116,30 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="19.6666666666667" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.65" style="1" customWidth="1"/>
-    <col min="3" max="5" width="27.0666666666667" style="1" customWidth="1"/>
-    <col min="6" max="6" width="58.5916666666667" style="1" customWidth="1"/>
-    <col min="7" max="7" width="44.0166666666667" style="1" customWidth="1"/>
-    <col min="8" max="9" width="9" style="2"/>
+    <col min="3" max="3" width="27.0666666666667" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.0583333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.0666666666667" style="1" customWidth="1"/>
+    <col min="7" max="7" width="58.5916666666667" style="1" customWidth="1"/>
+    <col min="8" max="8" width="44.0166666666667" style="1" customWidth="1"/>
+    <col min="9" max="10" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31" customHeight="1" spans="1:7">
+    <row r="1" ht="31" customHeight="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1148,92 +1161,107 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" ht="78" customHeight="1" spans="1:7">
+    <row r="2" ht="78" customHeight="1" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="3" ht="27" customHeight="1" spans="1:7">
+    <row r="3" ht="27" customHeight="1" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>14</v>
+      <c r="H3" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="4" ht="67" customHeight="1" spans="1:7">
+    <row r="4" ht="67" customHeight="1" spans="1:8">
       <c r="A4" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="1" t="s">
-        <v>22</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="3"/>
       <c r="G4" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="5" ht="65" customHeight="1" spans="1:7">
+    <row r="5" ht="65" customHeight="1" spans="1:8">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D5" s="1">
-        <v>20</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>26</v>
+        <v>3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>8</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/GunfireDungeon_Godot/excel/AbnormalStateConfig@异常状态.xlsx
+++ b/GunfireDungeon_Godot/excel/AbnormalStateConfig@异常状态.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24765" windowHeight="14685"/>
+    <workbookView windowWidth="29400" windowHeight="14020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
   <si>
     <t>Id</t>
   </si>
@@ -44,6 +44,12 @@
   </si>
   <si>
     <t>LostSpeed</t>
+  </si>
+  <si>
+    <t>ActiveLostTime</t>
+  </si>
+  <si>
+    <t>ActiveLostSpeed</t>
   </si>
   <si>
     <t>Config</t>
@@ -66,7 +72,8 @@
   </si>
   <si>
     <t>异常状态开始消退延时，单位：秒
-注意：这个值只用于未进入该异常状态时的消退时间</t>
+注意：这个值只用于未进入该异常状态时的消退时间
+如果为负数，则不会消退</t>
   </si>
   <si>
     <t>异常属性消退速度
@@ -74,6 +81,15 @@
 注意：这个值只用于未进入该异常状态时的消退速度</t>
   </si>
   <si>
+    <t>触发异常状态效果后开始消退延时，单位秒
+如果为负数，则不会消退</t>
+  </si>
+  <si>
+    <t>触发异常状态后每秒消退值
+参数：[消退值，是否是百分比]
+0：不是百分比，1：是百分比</t>
+  </si>
+  <si>
     <t>额外配置属性</t>
   </si>
   <si>
@@ -110,6 +126,9 @@
     <t>8</t>
   </si>
   <si>
+    <t>0.1, 1</t>
+  </si>
+  <si>
     <t>每秒扣除（3%最大生命值+5）的生命值，持续10秒</t>
   </si>
   <si>
@@ -120,6 +139,9 @@
   </si>
   <si>
     <t>1, 1.1, 1.2, 1.3, 1.4, 1.5, 1.6,  1.7, 1.8, 1.9</t>
+  </si>
+  <si>
+    <t>0.125, 1</t>
   </si>
   <si>
     <t>累计中毒可以叠加层数，每层每秒受到（2%最大生命值+2）的生命值，每层持续8秒</t>
@@ -1116,30 +1138,30 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="19.6666666666667" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.65" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.0666666666667" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.0583333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.0666666666667" style="1" customWidth="1"/>
-    <col min="7" max="7" width="58.5916666666667" style="1" customWidth="1"/>
-    <col min="8" max="8" width="44.0166666666667" style="1" customWidth="1"/>
-    <col min="9" max="10" width="9" style="2"/>
+    <col min="1" max="1" width="19.6634615384615" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6538461538462" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.0673076923077" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.0576923076923" style="1" customWidth="1"/>
+    <col min="5" max="7" width="20.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="27.0673076923077" style="1" customWidth="1"/>
+    <col min="9" max="9" width="58.5961538461538" style="1" customWidth="1"/>
+    <col min="10" max="10" width="44.0192307692308" style="1" customWidth="1"/>
+    <col min="11" max="12" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31" customHeight="1" spans="1:8">
+    <row r="1" ht="31" customHeight="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1164,92 +1186,116 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" ht="78" customHeight="1" spans="1:8">
+    <row r="2" ht="109" customHeight="1" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="3" ht="27" customHeight="1" spans="1:8">
+    <row r="3" ht="27" customHeight="1" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="4" ht="67" customHeight="1" spans="1:8">
+    <row r="4" ht="67" customHeight="1" spans="1:10">
       <c r="A4" s="3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>26</v>
+      <c r="G4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="5" ht="65" customHeight="1" spans="1:8">
+    <row r="5" ht="65" customHeight="1" spans="1:10">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D5" s="1">
         <v>3</v>
@@ -1257,11 +1303,17 @@
       <c r="E5" s="1">
         <v>8</v>
       </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
       <c r="G5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1280,7 +1332,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1297,7 +1349,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/GunfireDungeon_Godot/excel/AbnormalStateConfig@异常状态.xlsx
+++ b/GunfireDungeon_Godot/excel/AbnormalStateConfig@异常状态.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29400" windowHeight="14020"/>
+    <workbookView windowWidth="24765" windowHeight="14685"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
   <si>
     <t>Id</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>Icon</t>
+  </si>
+  <si>
+    <t>IconMask</t>
   </si>
   <si>
     <t>异常状态类型id，和AbnormalStateType枚举索引对应</t>
@@ -99,6 +102,9 @@
     <t>图标</t>
   </si>
   <si>
+    <t>图标遮挡</t>
+  </si>
+  <si>
     <t>string</t>
   </si>
   <si>
@@ -126,7 +132,7 @@
     <t>8</t>
   </si>
   <si>
-    <t>0.1, 1</t>
+    <t>0.11111, 1</t>
   </si>
   <si>
     <t>每秒扣除（3%最大生命值+5）的生命值，持续10秒</t>
@@ -135,19 +141,25 @@
     <t>res://resource/sprite/tip/Fire.png</t>
   </si>
   <si>
+    <t>res://resource/sprite/tip/FireMask.png</t>
+  </si>
+  <si>
     <t>中毒</t>
   </si>
   <si>
-    <t>1, 1.1, 1.2, 1.3, 1.4, 1.5, 1.6,  1.7, 1.8, 1.9</t>
-  </si>
-  <si>
-    <t>0.125, 1</t>
+    <t>1, 1.1, 1.2</t>
+  </si>
+  <si>
+    <t>0.142857, 1</t>
   </si>
   <si>
     <t>累计中毒可以叠加层数，每层每秒受到（2%最大生命值+2）的生命值，每层持续8秒</t>
   </si>
   <si>
     <t>res://resource/sprite/tip/Poison.png</t>
+  </si>
+  <si>
+    <t>res://resource/sprite/tip/PoisonMask.png</t>
   </si>
 </sst>
 </file>
@@ -1138,30 +1150,31 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomRight" activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="19.6634615384615" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6538461538462" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.0673076923077" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.0576923076923" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.6666666666667" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.65" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.0666666666667" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.0583333333333" style="1" customWidth="1"/>
     <col min="5" max="7" width="20.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="27.0673076923077" style="1" customWidth="1"/>
-    <col min="9" max="9" width="58.5961538461538" style="1" customWidth="1"/>
-    <col min="10" max="10" width="44.0192307692308" style="1" customWidth="1"/>
-    <col min="11" max="12" width="9" style="2"/>
+    <col min="8" max="8" width="27.0666666666667" style="1" customWidth="1"/>
+    <col min="9" max="9" width="58.6" style="1" customWidth="1"/>
+    <col min="10" max="10" width="44.0166666666667" style="1" customWidth="1"/>
+    <col min="11" max="11" width="43.3666666666667" style="2" customWidth="1"/>
+    <col min="12" max="12" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31" customHeight="1" spans="1:10">
+    <row r="1" ht="31" customHeight="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1192,110 +1205,122 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" ht="109" customHeight="1" spans="1:10">
+    <row r="2" ht="109" customHeight="1" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="3" ht="27" customHeight="1" spans="1:10">
+    <row r="3" ht="27" customHeight="1" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="K3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>20</v>
-      </c>
     </row>
-    <row r="4" ht="67" customHeight="1" spans="1:10">
+    <row r="4" ht="67" customHeight="1" spans="1:11">
       <c r="A4" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="5" ht="65" customHeight="1" spans="1:10">
+    <row r="5" ht="65" customHeight="1" spans="1:11">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D5" s="1">
         <v>3</v>
@@ -1304,16 +1329,19 @@
         <v>8</v>
       </c>
       <c r="F5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1332,7 +1360,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1349,7 +1377,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/GunfireDungeon_Godot/excel/AbnormalStateConfig@异常状态.xlsx
+++ b/GunfireDungeon_Godot/excel/AbnormalStateConfig@异常状态.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24765" windowHeight="14685"/>
+    <workbookView windowWidth="24765" windowHeight="12495"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
   <si>
     <t>Id</t>
   </si>
@@ -52,7 +52,7 @@
     <t>ActiveLostSpeed</t>
   </si>
   <si>
-    <t>Config</t>
+    <t>AsComp</t>
   </si>
   <si>
     <t>Details</t>
@@ -93,7 +93,7 @@
 0：不是百分比，1：是百分比</t>
   </si>
   <si>
-    <t>额外配置属性</t>
+    <t>异常状态绑定的处理组件，参数描述参考Sheet2</t>
   </si>
   <si>
     <t>描述</t>
@@ -114,7 +114,7 @@
     <t>float</t>
   </si>
   <si>
-    <t>{string:object}*</t>
+    <t>{string:[object]}*</t>
   </si>
   <si>
     <t>0</t>
@@ -132,10 +132,13 @@
     <t>8</t>
   </si>
   <si>
-    <t>0.11111, 1</t>
-  </si>
-  <si>
-    <t>每秒扣除（3%最大生命值+5）的生命值，持续10秒</t>
+    <t>0.0714, 1</t>
+  </si>
+  <si>
+    <t>"AsContinuousDamage":[1,0.03,3]</t>
+  </si>
+  <si>
+    <t>每秒扣除（3%最大生命值+3）的生命值，移动速度+20%，持续15秒</t>
   </si>
   <si>
     <t>res://resource/sprite/tip/Fire.png</t>
@@ -147,19 +150,39 @@
     <t>中毒</t>
   </si>
   <si>
-    <t>1, 1.1, 1.2</t>
+    <t>1, 1.1, 1.2, 1.3, 1.4, 1.5, 1.6, 1.7, 1.8, 1.9</t>
   </si>
   <si>
     <t>0.142857, 1</t>
   </si>
   <si>
-    <t>累计中毒可以叠加层数，每层每秒受到（2%最大生命值+2）的生命值，每层持续8秒</t>
+    <t>"AsContinuousDamage":[1,0.01,1]</t>
+  </si>
+  <si>
+    <t>累计中毒可以叠加层数，每层每秒受到（1%最大生命值+1）的生命值，每层持续8秒</t>
   </si>
   <si>
     <t>res://resource/sprite/tip/Poison.png</t>
   </si>
   <si>
     <t>res://resource/sprite/tip/PoisonMask.png</t>
+  </si>
+  <si>
+    <t>AsComp参数说明</t>
+  </si>
+  <si>
+    <t>附属参数</t>
+  </si>
+  <si>
+    <t>AsContinuousDamage:每秒持续伤害，可以叠加多层
+参数1：多久触发一次，单位秒
+参数2：每秒失去生命值百分比
+参数3: 每秒失去生命值</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LostPercentage:每秒失去生命值百分比,不填默认0
+LostValue:每秒失去生命值，不填默认0
+</t>
   </si>
 </sst>
 </file>
@@ -775,9 +798,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1153,195 +1182,200 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K5" sqref="K5"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="19.6666666666667" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.65" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.0666666666667" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.0583333333333" style="1" customWidth="1"/>
-    <col min="5" max="7" width="20.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="27.0666666666667" style="1" customWidth="1"/>
-    <col min="9" max="9" width="58.6" style="1" customWidth="1"/>
-    <col min="10" max="10" width="44.0166666666667" style="1" customWidth="1"/>
-    <col min="11" max="11" width="43.3666666666667" style="2" customWidth="1"/>
-    <col min="12" max="12" width="9" style="2"/>
+    <col min="1" max="1" width="19.6666666666667" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.65" style="3" customWidth="1"/>
+    <col min="3" max="3" width="27.0666666666667" style="3" customWidth="1"/>
+    <col min="4" max="4" width="17.0583333333333" style="3" customWidth="1"/>
+    <col min="5" max="7" width="20.75" style="3" customWidth="1"/>
+    <col min="8" max="8" width="40.975" style="3" customWidth="1"/>
+    <col min="9" max="9" width="58.6" style="3" customWidth="1"/>
+    <col min="10" max="10" width="44.0166666666667" style="3" customWidth="1"/>
+    <col min="11" max="11" width="43.3666666666667" style="4" customWidth="1"/>
+    <col min="12" max="12" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" ht="31" customHeight="1" spans="1:11">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" ht="109" customHeight="1" spans="1:11">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" ht="27" customHeight="1" spans="1:11">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" ht="67" customHeight="1" spans="1:11">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="1" t="s">
+      <c r="H4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="I4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="J4" s="3" t="s">
         <v>34</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="5" ht="65" customHeight="1" spans="1:11">
-      <c r="A5" s="1">
+      <c r="A5" s="3">
         <v>1</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="1">
+      <c r="C5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="3">
         <v>3</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="3">
         <v>8</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="3">
         <v>1</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" s="1" t="s">
+      <c r="G5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="H5" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="I5" s="3" t="s">
         <v>40</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1354,14 +1388,35 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="B2:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="2"/>
+  <cols>
+    <col min="2" max="2" width="55.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="34.625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" ht="84" customHeight="1" spans="2:3">
+      <c r="B2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" ht="123" customHeight="1" spans="2:3">
+      <c r="B3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/GunfireDungeon_Godot/excel/AbnormalStateConfig@异常状态.xlsx
+++ b/GunfireDungeon_Godot/excel/AbnormalStateConfig@异常状态.xlsx
@@ -129,7 +129,7 @@
     <t>3</t>
   </si>
   <si>
-    <t>8</t>
+    <t>5</t>
   </si>
   <si>
     <t>0.0714, 1</t>
@@ -1182,11 +1182,11 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -1357,7 +1357,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>

--- a/GunfireDungeon_Godot/excel/AbnormalStateConfig@异常状态.xlsx
+++ b/GunfireDungeon_Godot/excel/AbnormalStateConfig@异常状态.xlsx
@@ -135,10 +135,10 @@
     <t>0.0714, 1</t>
   </si>
   <si>
-    <t>"AsContinuousDamage":[1,0.03,3]</t>
-  </si>
-  <si>
-    <t>每秒扣除（3%最大生命值+3）的生命值，移动速度+20%，持续15秒</t>
+    <t>"AsContinuousDamage":[1,0.01,2]</t>
+  </si>
+  <si>
+    <t>每秒扣除（1%最大生命值+2）的生命值，移动速度+20%，持续15秒</t>
   </si>
   <si>
     <t>res://resource/sprite/tip/Fire.png</t>
@@ -156,10 +156,10 @@
     <t>0.142857, 1</t>
   </si>
   <si>
-    <t>"AsContinuousDamage":[1,0.01,1]</t>
-  </si>
-  <si>
-    <t>累计中毒可以叠加层数，每层每秒受到（1%最大生命值+1）的生命值，每层持续8秒</t>
+    <t>"AsContinuousDamage":[1,0.005,1]</t>
+  </si>
+  <si>
+    <t>累计中毒可以叠加层数，每层每秒受到（0.5%最大生命值+1）的生命值，每层持续8秒</t>
   </si>
   <si>
     <t>res://resource/sprite/tip/Poison.png</t>
@@ -1182,11 +1182,11 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomRight" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
